--- a/evm_doc/数据库表结构.xlsx
+++ b/evm_doc/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="692" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18540" windowHeight="7870" tabRatio="692" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="进度管理" sheetId="24" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
   <si>
     <t>用例</t>
   </si>
@@ -405,6 +405,12 @@
     <t>2.数据权限，WEB端和APP端</t>
   </si>
   <si>
+    <t>2017/7/29日工作</t>
+  </si>
+  <si>
+    <t>数据导入（半手工导入109条记录，耗时近6小时）</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1577,9 +1583,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -1674,6 +1680,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1682,14 +1702,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1697,7 +1724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1711,8 +1738,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1728,7 +1762,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,46 +1777,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1794,16 +1808,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,7 +1873,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,25 +2005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,85 +2017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,37 +2035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,7 +2047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,16 +2191,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2203,7 +2209,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2238,26 +2244,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2276,8 +2282,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2289,10 +2295,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2301,16 +2307,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2319,115 +2325,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2746,6 +2752,11 @@
       <color rgb="00FFFFFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2753,16 +2764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3000375</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1028065</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>170815</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2779,8 +2790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="21764625"/>
-          <a:ext cx="5438140" cy="3495040"/>
+          <a:off x="9591040" y="21945600"/>
+          <a:ext cx="4820920" cy="3622040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3048,12 +3059,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:C18"/>
   <sheetViews>
@@ -3061,10 +3071,10 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="15.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="13.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="2:3">
@@ -3221,7 +3231,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7bd8aa32-ff4d-4bb1-83ff-4505cda1c25a}</x14:id>
+          <x14:id>{c446bc98-7799-4c08-8672-0ddd6b822e10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3233,7 +3243,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7bd8aa32-ff4d-4bb1-83ff-4505cda1c25a}">
+          <x14:cfRule type="dataBar" id="{c446bc98-7799-4c08-8672-0ddd6b822e10}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3252,7 +3262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3262,16 +3272,16 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3282,28 +3292,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -3311,20 +3321,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -3332,17 +3342,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3351,45 +3361,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3398,17 +3408,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3417,17 +3427,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3509,7 +3519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3519,17 +3529,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3540,28 +3550,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3569,20 +3579,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3590,17 +3600,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3609,15 +3619,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="36"/>
       <c r="F5" s="37" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3626,17 +3636,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3645,17 +3655,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3664,15 +3674,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="37" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3681,15 +3691,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3698,15 +3708,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3715,15 +3725,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="37" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -3732,15 +3742,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -3749,15 +3759,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -3766,17 +3776,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -3785,17 +3795,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -3804,17 +3814,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -3823,17 +3833,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -3842,15 +3852,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="37" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -3859,10 +3869,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3874,10 +3884,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3889,15 +3899,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -3914,7 +3924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3924,21 +3934,21 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="15.7545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="13.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="11.8727272727273" customWidth="1"/>
+    <col min="5" max="5" width="11.6272727272727" customWidth="1"/>
+    <col min="6" max="6" width="13.7545454545455" customWidth="1"/>
+    <col min="7" max="7" width="15.1272727272727" customWidth="1"/>
     <col min="9" max="13" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3949,28 +3959,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -3978,49 +3988,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4029,23 +4039,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" s="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
@@ -4053,21 +4063,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -4080,21 +4090,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>275</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>273</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -4107,13 +4117,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -4128,16 +4138,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4152,13 +4162,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -4170,13 +4180,13 @@
     </row>
     <row r="12" s="8" customFormat="1" ht="18" customHeight="1" spans="2:14">
       <c r="B12" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>26</v>
@@ -4194,13 +4204,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>28</v>
@@ -4218,13 +4228,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -4239,13 +4249,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -4260,13 +4270,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -4281,13 +4291,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -4302,13 +4312,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -4323,13 +4333,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -4344,13 +4354,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -4365,13 +4375,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -4386,13 +4396,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -4407,13 +4417,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -4428,16 +4438,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -4452,16 +4462,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -4476,16 +4486,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -4500,16 +4510,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -4524,13 +4534,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -4543,18 +4553,18 @@
     <row r="29" spans="1:8">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H29" s="19"/>
     </row>
@@ -4593,7 +4603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -4603,19 +4613,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.1272727272727" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4625,28 +4635,28 @@
     </row>
     <row r="2" ht="39.75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -4654,17 +4664,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -4673,17 +4683,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -4692,17 +4702,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4711,17 +4721,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4730,17 +4740,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4749,17 +4759,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -4768,17 +4778,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -4846,7 +4856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4856,17 +4866,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="17.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4877,44 +4887,44 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="18"/>
@@ -4924,17 +4934,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -4943,17 +4953,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4962,18 +4972,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4981,15 +4991,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4998,15 +5008,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -5015,15 +5025,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -5032,15 +5042,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -5049,15 +5059,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -5066,15 +5076,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -5083,15 +5093,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -5100,15 +5110,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -5117,18 +5127,18 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5136,15 +5146,15 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -5153,15 +5163,15 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -5170,15 +5180,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -5187,15 +5197,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -5204,15 +5214,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -5221,15 +5231,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -5238,15 +5248,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -5255,15 +5265,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -5272,15 +5282,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -5289,15 +5299,15 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -5306,15 +5316,15 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -5323,15 +5333,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -5340,17 +5350,17 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -5359,17 +5369,17 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="4"/>
     </row>
@@ -5378,17 +5388,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -5397,17 +5407,17 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -5416,15 +5426,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -5433,10 +5443,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5448,10 +5458,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5471,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5481,15 +5491,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="19.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5500,28 +5510,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:8">
@@ -5529,17 +5539,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="19"/>
@@ -5549,17 +5559,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="19"/>
@@ -5569,15 +5579,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="19"/>
@@ -5587,15 +5597,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="19"/>
@@ -5605,15 +5615,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="19"/>
@@ -5623,15 +5633,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="19"/>
@@ -5641,17 +5651,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="19"/>
@@ -5661,17 +5671,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="19"/>
@@ -5681,17 +5691,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="19"/>
@@ -5701,17 +5711,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="19"/>
@@ -5729,7 +5739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5739,7 +5749,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -5748,7 +5758,7 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5759,28 +5769,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5788,15 +5798,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="19"/>
@@ -5806,15 +5816,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="19"/>
@@ -5824,15 +5834,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="19"/>
@@ -5842,15 +5852,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="19"/>
@@ -5860,15 +5870,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="19"/>
@@ -5910,7 +5920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5920,16 +5930,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="21.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="16.7545454545455" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5940,28 +5950,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -5969,17 +5979,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -5988,17 +5998,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -6007,20 +6017,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:7">
@@ -6028,15 +6038,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6045,15 +6055,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6062,15 +6072,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -6079,15 +6089,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6096,15 +6106,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -6113,15 +6123,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -6130,15 +6140,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -6147,15 +6157,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -6164,15 +6174,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -6181,18 +6191,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:7">
@@ -6200,15 +6210,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -6217,15 +6227,15 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -6234,15 +6244,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -6251,15 +6261,15 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -6268,15 +6278,15 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -6285,15 +6295,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -6302,15 +6312,15 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -6319,15 +6329,15 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -6336,17 +6346,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -6355,17 +6365,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -6374,17 +6384,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -6393,34 +6403,34 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -6437,7 +6447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6447,18 +6457,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25454545454545" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6469,28 +6479,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -6498,32 +6508,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -6532,17 +6542,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -6551,17 +6561,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6570,17 +6580,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6589,17 +6599,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -6608,17 +6618,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6658,7 +6668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6668,16 +6678,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="35.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6688,28 +6698,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -6717,17 +6727,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -6736,17 +6746,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -6755,17 +6765,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -6774,17 +6784,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6793,17 +6803,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6812,17 +6822,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -6831,17 +6841,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6850,15 +6860,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -6919,23 +6929,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="97.25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="97.2545454545455" style="44" customWidth="1"/>
+    <col min="2" max="2" width="25.3727272727273" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
+    <row r="1" ht="17.5" spans="1:3">
       <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
@@ -7639,7 +7649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" ht="54" spans="1:3">
+    <row r="76" ht="56" spans="1:3">
       <c r="A76" s="64" t="s">
         <v>67</v>
       </c>
@@ -7788,7 +7798,7 @@
       <c r="B92" s="75"/>
       <c r="C92" s="74"/>
     </row>
-    <row r="93" ht="27" spans="1:3">
+    <row r="93" ht="28" spans="1:3">
       <c r="A93" s="64" t="s">
         <v>84</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" ht="40.5" spans="1:3">
+    <row r="95" ht="42" spans="1:3">
       <c r="A95" s="64" t="s">
         <v>87</v>
       </c>
@@ -7819,7 +7829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="67.5" spans="1:3">
+    <row r="96" ht="70" spans="1:3">
       <c r="A96" s="64" t="s">
         <v>89</v>
       </c>
@@ -7837,7 +7847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" ht="27" spans="1:3">
+    <row r="98" ht="28" spans="1:3">
       <c r="A98" s="64" t="s">
         <v>91</v>
       </c>
@@ -7958,7 +7968,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="63" t="s">
+      <c r="A113" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B113" s="49"/>
@@ -7972,6 +7982,16 @@
     <row r="115" spans="1:1">
       <c r="A115" s="44" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="44" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8006,7 +8026,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07ab61b8-4b21-4b5c-bee0-bbc97d0b5a09}</x14:id>
+          <x14:id>{08167fcb-bcd2-42db-8d60-2b7dfaa87731}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8025,7 +8045,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e46f381b-a0aa-4829-92f0-237700a641a8}</x14:id>
+          <x14:id>{210d2326-f321-4e50-b60b-358448b052a4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8039,7 +8059,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{789bdeec-c491-4d61-9599-fdcdc5b647bc}</x14:id>
+          <x14:id>{f1403efc-213c-4832-ab09-4bb64bfbfa35}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8053,7 +8073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21aee4c3-0946-4185-9d78-32f467433349}</x14:id>
+          <x14:id>{ef272fa7-8397-421a-a3d1-927a9405e200}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8066,7 +8086,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{07ab61b8-4b21-4b5c-bee0-bbc97d0b5a09}">
+          <x14:cfRule type="dataBar" id="{08167fcb-bcd2-42db-8d60-2b7dfaa87731}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8079,7 +8099,7 @@
           <xm:sqref>C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e46f381b-a0aa-4829-92f0-237700a641a8}">
+          <x14:cfRule type="dataBar" id="{210d2326-f321-4e50-b60b-358448b052a4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8092,7 +8112,7 @@
           <xm:sqref>C2:C45 C48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{789bdeec-c491-4d61-9599-fdcdc5b647bc}">
+          <x14:cfRule type="dataBar" id="{f1403efc-213c-4832-ab09-4bb64bfbfa35}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8105,7 +8125,7 @@
           <xm:sqref>C56:C64 C49:C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21aee4c3-0946-4185-9d78-32f467433349}">
+          <x14:cfRule type="dataBar" id="{ef272fa7-8397-421a-a3d1-927a9405e200}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8124,7 +8144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8134,16 +8154,16 @@
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="3" width="13.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8154,28 +8174,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8183,20 +8203,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -8204,17 +8224,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -8223,17 +8243,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -8242,17 +8262,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -8261,17 +8281,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -8280,17 +8300,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -8299,17 +8319,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -8349,7 +8369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8359,19 +8379,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="22.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -8381,28 +8401,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8410,17 +8430,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -8429,29 +8449,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
@@ -8459,10 +8479,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:3">
@@ -8470,10 +8490,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
@@ -8481,10 +8501,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
@@ -8492,10 +8512,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:3">
@@ -8503,10 +8523,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
@@ -8514,10 +8534,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:3">
@@ -8525,10 +8545,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
@@ -8536,10 +8556,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8605,7 +8625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8615,17 +8635,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="19.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8636,28 +8656,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8665,17 +8685,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -8684,17 +8704,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -8703,15 +8723,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -8720,15 +8740,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -8737,15 +8757,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -8754,15 +8774,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -8771,17 +8791,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -8790,17 +8810,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -8809,17 +8829,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -8828,17 +8848,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -8856,7 +8876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8866,17 +8886,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="27.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8887,28 +8907,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8916,17 +8936,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -8935,17 +8955,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -8954,17 +8974,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -8973,15 +8993,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -8990,17 +9010,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -9009,17 +9029,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -9028,17 +9048,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -9047,17 +9067,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -9086,7 +9106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -9096,17 +9116,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="28.2545454545455" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25454545454545" customWidth="1"/>
+    <col min="7" max="7" width="7.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9115,30 +9135,30 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
@@ -9146,17 +9166,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -9165,17 +9185,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -9184,17 +9204,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -9212,7 +9232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -9220,16 +9240,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6272727272727" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9240,28 +9260,28 @@
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
@@ -9269,17 +9289,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -9288,17 +9308,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -9307,17 +9327,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -9335,7 +9355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -9343,28 +9363,28 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="32.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="19.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9372,16 +9392,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9389,16 +9409,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9406,16 +9426,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9423,16 +9443,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9440,16 +9460,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9457,16 +9477,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9474,16 +9494,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9491,16 +9511,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9508,16 +9528,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9525,16 +9545,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9542,13 +9562,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -9557,13 +9577,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -9572,13 +9592,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -9587,13 +9607,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -9602,13 +9622,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -9617,16 +9637,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9634,16 +9654,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9651,13 +9671,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -9666,10 +9686,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -9679,10 +9699,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -9692,10 +9712,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -9746,7 +9766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -9754,19 +9774,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="18.1272727272727" customWidth="1"/>
+    <col min="3" max="3" width="46.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.75" customHeight="1" spans="1:6">
       <c r="A1" s="39"/>
       <c r="B1" s="39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
@@ -9780,7 +9800,7 @@
         <v>42655</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -10027,7 +10047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -10037,18 +10057,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="20.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="14.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="15.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="12.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="36.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -10059,28 +10079,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10088,20 +10108,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -10109,19 +10129,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -10130,17 +10150,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10149,17 +10169,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -10168,15 +10188,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -10185,15 +10205,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -10202,30 +10222,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -10234,15 +10254,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -10251,15 +10271,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -10268,17 +10288,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -10287,17 +10307,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -10306,17 +10326,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -10325,17 +10345,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -10344,17 +10364,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -10363,10 +10383,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10377,10 +10397,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -10457,7 +10477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -10467,18 +10487,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="12.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="7.25454545454545" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10489,28 +10509,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10518,20 +10538,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -10539,17 +10559,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -10558,15 +10578,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10575,17 +10595,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -10594,17 +10614,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -10613,17 +10633,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -10632,17 +10652,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -10659,7 +10679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -10669,17 +10689,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="52.5" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -10690,28 +10710,28 @@
     </row>
     <row r="2" ht="40.5" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10719,20 +10739,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -10740,20 +10760,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:7">
@@ -10761,17 +10781,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10780,17 +10800,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -10799,17 +10819,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -10818,17 +10838,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -10864,7 +10884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -10874,15 +10894,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10893,28 +10913,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10922,17 +10942,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -10941,17 +10961,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -10960,15 +10980,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10997,7 +11017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -11007,18 +11027,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25454545454545" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -11029,28 +11049,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -11058,17 +11078,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -11077,17 +11097,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -11096,17 +11116,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -11115,17 +11135,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -11134,17 +11154,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -11153,17 +11173,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G8" s="4"/>
     </row>

--- a/evm_doc/数据库表结构.xlsx
+++ b/evm_doc/数据库表结构.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494">
   <si>
     <t>用例</t>
   </si>
@@ -411,6 +411,15 @@
     <t>数据导入（半手工导入109条记录，耗时近6小时）</t>
   </si>
   <si>
+    <t>2017/8/14导入工作量评估</t>
+  </si>
+  <si>
+    <t>主要数据导入开发及调试需40-60工时，价格约（2000左右）</t>
+  </si>
+  <si>
+    <t>单设备导入16-20工时 价格600-800</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1583,10 +1592,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1680,7 +1689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,6 +1697,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,45 +1747,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1762,7 +1764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1770,7 +1772,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,17 +1788,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1808,8 +1802,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1873,7 +1882,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,7 +1948,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,37 +1996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,43 +2026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,61 +2050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,17 +2199,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2215,31 +2218,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2268,6 +2256,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2278,15 +2296,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2295,10 +2304,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2307,16 +2316,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2325,119 +2334,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2676,6 +2685,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2815,7 +2836,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3078,10 +3099,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="2:3">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3231,7 +3252,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c446bc98-7799-4c08-8672-0ddd6b822e10}</x14:id>
+          <x14:id>{5d2fb4f9-445a-48fc-ae00-821b688e6ca7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3243,7 +3264,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c446bc98-7799-4c08-8672-0ddd6b822e10}">
+          <x14:cfRule type="dataBar" id="{5d2fb4f9-445a-48fc-ae00-821b688e6ca7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3281,7 +3302,7 @@
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3292,28 +3313,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -3321,20 +3342,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -3342,17 +3363,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3361,45 +3382,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3408,17 +3429,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3427,17 +3448,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3539,7 +3560,7 @@
   <sheetData>
     <row r="1" ht="43.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3550,28 +3571,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3579,20 +3600,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3600,17 +3621,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3619,15 +3640,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="36"/>
       <c r="F5" s="37" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3636,17 +3657,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3655,17 +3676,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3674,15 +3695,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3691,15 +3712,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="37" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3708,15 +3729,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3725,15 +3746,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="37" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -3742,15 +3763,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="37" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -3759,15 +3780,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="37" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -3776,17 +3797,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -3795,17 +3816,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -3814,17 +3835,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -3833,17 +3854,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -3852,15 +3873,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="37" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -3869,10 +3890,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3884,10 +3905,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3899,15 +3920,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -3948,7 +3969,7 @@
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3959,28 +3980,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -3988,49 +4009,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4039,23 +4060,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" s="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
@@ -4063,21 +4084,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -4090,21 +4111,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="H8" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -4117,13 +4138,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -4138,16 +4159,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -4162,13 +4183,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -4180,13 +4201,13 @@
     </row>
     <row r="12" s="8" customFormat="1" ht="18" customHeight="1" spans="2:14">
       <c r="B12" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>26</v>
@@ -4204,13 +4225,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>28</v>
@@ -4228,13 +4249,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -4249,13 +4270,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -4270,13 +4291,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -4291,13 +4312,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -4312,13 +4333,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -4333,13 +4354,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -4354,13 +4375,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -4375,13 +4396,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -4396,13 +4417,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -4417,13 +4438,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -4438,16 +4459,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -4462,16 +4483,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -4486,16 +4507,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -4510,16 +4531,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -4534,13 +4555,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -4553,18 +4574,18 @@
     <row r="29" spans="1:8">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H29" s="19"/>
     </row>
@@ -4622,10 +4643,10 @@
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4635,28 +4656,28 @@
     </row>
     <row r="2" ht="39.75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -4664,17 +4685,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -4683,17 +4704,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -4702,17 +4723,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4721,17 +4742,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4740,17 +4761,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4759,17 +4780,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -4778,17 +4799,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -4876,7 +4897,7 @@
   <sheetData>
     <row r="1" ht="37.5" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4887,44 +4908,44 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="18"/>
@@ -4934,17 +4955,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -4953,17 +4974,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -4972,18 +4993,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4991,15 +5012,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -5008,15 +5029,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -5025,15 +5046,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -5042,15 +5063,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -5059,15 +5080,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -5076,15 +5097,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -5093,15 +5114,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -5110,15 +5131,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -5127,18 +5148,18 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5146,15 +5167,15 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -5163,15 +5184,15 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -5180,15 +5201,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -5197,15 +5218,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -5214,15 +5235,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -5231,15 +5252,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -5248,15 +5269,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -5265,15 +5286,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -5282,15 +5303,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -5299,15 +5320,15 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -5316,15 +5337,15 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -5333,15 +5354,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -5350,17 +5371,17 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -5369,17 +5390,17 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G29" s="4"/>
     </row>
@@ -5388,17 +5409,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -5407,17 +5428,17 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -5426,15 +5447,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -5443,10 +5464,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5458,10 +5479,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5499,7 +5520,7 @@
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5510,28 +5531,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:8">
@@ -5539,17 +5560,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="19"/>
@@ -5559,17 +5580,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="19"/>
@@ -5579,15 +5600,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="19"/>
@@ -5597,15 +5618,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="19"/>
@@ -5615,15 +5636,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="19"/>
@@ -5633,15 +5654,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="19"/>
@@ -5651,17 +5672,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="19"/>
@@ -5671,17 +5692,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="19"/>
@@ -5691,17 +5712,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="19"/>
@@ -5711,17 +5732,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="19"/>
@@ -5758,7 +5779,7 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5769,28 +5790,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5798,15 +5819,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="19"/>
@@ -5816,15 +5837,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="19"/>
@@ -5834,15 +5855,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="19"/>
@@ -5852,15 +5873,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="19"/>
@@ -5870,15 +5891,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="19"/>
@@ -5939,7 +5960,7 @@
   <sheetData>
     <row r="1" ht="45.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5950,28 +5971,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -5979,17 +6000,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -5998,17 +6019,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -6017,20 +6038,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:7">
@@ -6038,15 +6059,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6055,15 +6076,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6072,15 +6093,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -6089,15 +6110,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6106,15 +6127,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -6123,15 +6144,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -6140,15 +6161,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -6157,15 +6178,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -6174,15 +6195,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -6191,18 +6212,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:7">
@@ -6210,15 +6231,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -6227,15 +6248,15 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -6244,15 +6265,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -6261,15 +6282,15 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -6278,15 +6299,15 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -6295,15 +6316,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -6312,15 +6333,15 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -6329,15 +6350,15 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -6346,17 +6367,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -6365,17 +6386,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -6384,17 +6405,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -6403,34 +6424,34 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -6468,7 +6489,7 @@
   <sheetData>
     <row r="1" ht="54.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6479,28 +6500,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -6508,32 +6529,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -6542,17 +6563,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -6561,17 +6582,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6580,17 +6601,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6599,17 +6620,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -6618,17 +6639,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6687,7 +6708,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6698,28 +6719,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -6727,17 +6748,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -6746,17 +6767,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -6765,17 +6786,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -6784,17 +6805,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6803,17 +6824,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6822,17 +6843,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -6841,17 +6862,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6860,15 +6881,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -6933,10 +6954,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -7974,25 +7995,54 @@
       <c r="B113" s="49"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="44" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="80" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="44" t="s">
+      <c r="B114" s="81"/>
+      <c r="C114" s="82"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="80" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="74" t="s">
+      <c r="B115" s="81"/>
+      <c r="C115" s="82"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="83" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="44" t="s">
+      <c r="B116" s="81"/>
+      <c r="C116" s="82"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="80" t="s">
         <v>108</v>
       </c>
+      <c r="B117" s="81"/>
+      <c r="C117" s="82"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="81"/>
+      <c r="C118" s="82"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="81"/>
+      <c r="C119" s="82"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="81"/>
+      <c r="C120" s="82"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C105"/>
@@ -8026,7 +8076,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08167fcb-bcd2-42db-8d60-2b7dfaa87731}</x14:id>
+          <x14:id>{74e2419d-0fdb-430b-9210-3d66d1e46a2d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8045,7 +8095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{210d2326-f321-4e50-b60b-358448b052a4}</x14:id>
+          <x14:id>{4d8ed830-8291-49fc-a12a-e0d06a45ac58}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8059,7 +8109,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f1403efc-213c-4832-ab09-4bb64bfbfa35}</x14:id>
+          <x14:id>{fd51b8e5-e74f-447b-830d-48a071e5531e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8073,7 +8123,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef272fa7-8397-421a-a3d1-927a9405e200}</x14:id>
+          <x14:id>{e7689b83-f769-420f-9827-63020145c908}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8086,7 +8136,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08167fcb-bcd2-42db-8d60-2b7dfaa87731}">
+          <x14:cfRule type="dataBar" id="{74e2419d-0fdb-430b-9210-3d66d1e46a2d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8099,7 +8149,7 @@
           <xm:sqref>C65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{210d2326-f321-4e50-b60b-358448b052a4}">
+          <x14:cfRule type="dataBar" id="{4d8ed830-8291-49fc-a12a-e0d06a45ac58}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8112,7 +8162,7 @@
           <xm:sqref>C2:C45 C48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f1403efc-213c-4832-ab09-4bb64bfbfa35}">
+          <x14:cfRule type="dataBar" id="{fd51b8e5-e74f-447b-830d-48a071e5531e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8125,7 +8175,7 @@
           <xm:sqref>C56:C64 C49:C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ef272fa7-8397-421a-a3d1-927a9405e200}">
+          <x14:cfRule type="dataBar" id="{e7689b83-f769-420f-9827-63020145c908}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8163,7 +8213,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8174,28 +8224,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8203,20 +8253,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -8224,17 +8274,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -8243,17 +8293,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -8262,17 +8312,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -8281,17 +8331,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -8300,17 +8350,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -8319,17 +8369,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -8388,10 +8438,10 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -8401,28 +8451,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8430,17 +8480,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -8449,29 +8499,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
@@ -8479,10 +8529,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:3">
@@ -8490,10 +8540,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
@@ -8501,10 +8551,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
@@ -8512,10 +8562,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:3">
@@ -8523,10 +8573,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
@@ -8534,10 +8584,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:3">
@@ -8545,10 +8595,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
@@ -8556,10 +8606,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8645,7 +8695,7 @@
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8656,28 +8706,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8685,17 +8735,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -8704,17 +8754,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -8723,15 +8773,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -8740,15 +8790,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -8757,15 +8807,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -8774,15 +8824,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -8791,17 +8841,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -8810,17 +8860,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -8829,17 +8879,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -8848,17 +8898,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -8896,7 +8946,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -8907,28 +8957,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -8936,17 +8986,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -8955,17 +9005,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -8974,17 +9024,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -8993,15 +9043,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -9010,17 +9060,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -9029,17 +9079,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -9048,17 +9098,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -9067,17 +9117,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -9126,7 +9176,7 @@
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9135,30 +9185,30 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
@@ -9166,17 +9216,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -9185,17 +9235,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -9204,17 +9254,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -9249,7 +9299,7 @@
   <sheetData>
     <row r="1" ht="43.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9260,28 +9310,28 @@
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
@@ -9289,17 +9339,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -9308,17 +9358,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -9327,17 +9377,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -9372,19 +9422,19 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9392,16 +9442,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9409,16 +9459,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9426,16 +9476,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9443,16 +9493,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9460,16 +9510,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9477,16 +9527,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9494,16 +9544,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9511,16 +9561,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9528,16 +9578,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9545,16 +9595,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9562,13 +9612,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -9577,13 +9627,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -9592,13 +9642,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -9607,13 +9657,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -9622,13 +9672,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -9637,16 +9687,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9654,16 +9704,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9671,13 +9721,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -9686,10 +9736,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -9699,10 +9749,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -9712,10 +9762,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -9783,10 +9833,10 @@
     <row r="1" ht="54.75" customHeight="1" spans="1:6">
       <c r="A1" s="39"/>
       <c r="B1" s="39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
@@ -9800,7 +9850,7 @@
         <v>42655</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -10068,7 +10118,7 @@
   <sheetData>
     <row r="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -10079,28 +10129,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10108,20 +10158,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -10129,19 +10179,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -10150,17 +10200,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10169,17 +10219,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -10188,15 +10238,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -10205,15 +10255,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -10222,30 +10272,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -10254,15 +10304,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -10271,15 +10321,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -10288,17 +10338,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -10307,17 +10357,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -10326,17 +10376,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -10345,17 +10395,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -10364,17 +10414,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -10383,10 +10433,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10397,10 +10447,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -10498,7 +10548,7 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10509,28 +10559,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10538,20 +10588,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -10559,17 +10609,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -10578,15 +10628,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10595,17 +10645,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -10614,17 +10664,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -10633,17 +10683,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -10652,17 +10702,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -10699,7 +10749,7 @@
   <sheetData>
     <row r="1" ht="52.5" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -10710,28 +10760,28 @@
     </row>
     <row r="2" ht="40.5" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10739,20 +10789,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:7">
@@ -10760,20 +10810,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:7">
@@ -10781,17 +10831,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -10800,17 +10850,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -10819,17 +10869,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -10838,17 +10888,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -10902,7 +10952,7 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10913,28 +10963,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -10942,17 +10992,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -10961,17 +11011,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -10980,15 +11030,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -11038,7 +11088,7 @@
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -11049,28 +11099,28 @@
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:7">
@@ -11078,17 +11128,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -11097,17 +11147,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -11116,17 +11166,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -11135,17 +11185,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -11154,17 +11204,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -11173,17 +11223,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G8" s="4"/>
     </row>
